--- a/gabarito.xlsx
+++ b/gabarito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almox01.filial\Documents\Automacao senior\CONTROLAR ESTOQUE\Arquivos excel estoque almox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almox01.filial\Documents\Executaveis\v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C69DB3-8697-427E-BE2F-C56F78F97175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21424EE-D707-42DD-9183-6A0E29B2C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$E$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$E$134</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="154">
   <si>
     <t>codigo</t>
   </si>
@@ -482,13 +482,16 @@
   </si>
   <si>
     <t>RQ LP921 (ROSA)</t>
+  </si>
+  <si>
+    <t>DESENGRIPANTE 300ML/200G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +513,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,10 +578,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -584,10 +603,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1786,7 @@
       <c r="A38" s="2">
         <v>6500120024</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="4"/>
@@ -1884,7 +1907,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
-        <f>SUM(C43-D43)</f>
+        <f t="shared" ref="E43:E49" si="3">SUM(C43-D43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -1907,7 +1930,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4">
-        <f>SUM(C44-D44)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -1930,7 +1953,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
-        <f>SUM(C45-D45)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -1953,7 +1976,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
-        <f>SUM(C46-D46)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -1976,7 +1999,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
-        <f>SUM(C47-D47)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -1999,7 +2022,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4">
-        <f>SUM(C48-D48)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -2013,16 +2036,14 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>6500130002</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="8">
+        <v>6500120064</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="E49" s="4">
-        <f>SUM(C49-D49)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -2031,16 +2052,16 @@
       <c r="G49" s="4">
         <v>32450</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="9">
         <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>6500130003</v>
+        <v>6500130002</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2060,10 +2081,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>6500130004</v>
+        <v>6500130003</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2083,10 +2104,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>6500130005</v>
+        <v>6500130004</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2106,10 +2127,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>6500130006</v>
+        <v>6500130005</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2129,10 +2150,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>6500130007</v>
+        <v>6500130006</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2152,10 +2173,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>6500130010</v>
+        <v>6500130007</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2175,10 +2196,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>6500140001</v>
+        <v>6500130010</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2187,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G56" s="4">
-        <v>32460</v>
+        <v>32450</v>
       </c>
       <c r="H56" s="4">
         <v>333</v>
@@ -2198,10 +2219,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>6500140002</v>
+        <v>6500140001</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2221,10 +2242,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>6500140003</v>
+        <v>6500140002</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2244,10 +2265,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>6500140004</v>
+        <v>6500140003</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2267,10 +2288,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>6500140005</v>
+        <v>6500140004</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2290,10 +2311,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>6500140006</v>
+        <v>6500140005</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2302,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G61" s="4">
         <v>32460</v>
@@ -2313,10 +2334,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>6500140007</v>
+        <v>6500140006</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2325,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G62" s="4">
         <v>32460</v>
@@ -2336,10 +2357,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>6500140008</v>
+        <v>6500140007</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2359,10 +2380,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>6500140010</v>
+        <v>6500140008</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2382,15 +2403,15 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>6500140011</v>
+        <v>6500140010</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4">
-        <f t="shared" ref="E65:E96" si="3">SUM(C65-D65)</f>
+        <f>SUM(C65-D65)</f>
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -2405,15 +2426,15 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>6500140018</v>
+        <v>6500140011</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E66:E97" si="4">SUM(C66-D66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2428,15 +2449,15 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>6500140027</v>
+        <v>6500140018</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -2451,22 +2472,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>65001501</v>
+        <v>6500140027</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G68" s="4">
-        <v>32450</v>
+        <v>32460</v>
       </c>
       <c r="H68" s="4">
         <v>333</v>
@@ -2474,15 +2495,15 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>65001503</v>
+        <v>65001501</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -2497,15 +2518,15 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>65001504</v>
+        <v>65001503</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -2520,15 +2541,15 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>65001505</v>
+        <v>65001504</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -2543,15 +2564,15 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>65001506</v>
+        <v>65001505</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -2566,15 +2587,15 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>65001507</v>
+        <v>65001506</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -2589,15 +2610,15 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>65001508</v>
+        <v>65001507</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -2612,15 +2633,15 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>65001510</v>
+        <v>65001508</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -2635,15 +2656,15 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>65001511</v>
+        <v>65001510</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -2658,19 +2679,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>650016001002</v>
+        <v>65001511</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G77" s="4">
         <v>32450</v>
@@ -2681,15 +2702,15 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>650016001004</v>
+        <v>650016001002</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -2704,15 +2725,15 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>650016001005</v>
+        <v>650016001004</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -2727,15 +2748,15 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>650016001179</v>
+        <v>650016001005</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -2750,15 +2771,15 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>650016003071</v>
+        <v>650016001179</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -2773,15 +2794,15 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>650016003072</v>
+        <v>650016003071</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -2796,15 +2817,15 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>650016003593</v>
+        <v>650016003072</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -2819,15 +2840,15 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>650016007006</v>
+        <v>650016003593</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -2842,15 +2863,15 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>650016007008</v>
+        <v>650016007006</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -2865,15 +2886,15 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>650016007010</v>
+        <v>650016007008</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -2888,15 +2909,15 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>650016007100</v>
+        <v>650016007010</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -2911,15 +2932,15 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>650016008012</v>
+        <v>650016007100</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -2934,15 +2955,15 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>650016009013</v>
+        <v>650016008012</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -2957,15 +2978,15 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>650016010018</v>
+        <v>650016009013</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -2980,15 +3001,15 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>650016013880</v>
+        <v>650016010018</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -3003,15 +3024,15 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>650016032075</v>
+        <v>650016013880</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -3026,15 +3047,15 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>650016032301</v>
+        <v>650016032075</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -3049,15 +3070,15 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>650016032973</v>
+        <v>650016032301</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -3072,19 +3093,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>6500180003</v>
+        <v>650016032973</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="G95" s="4">
         <v>32450</v>
@@ -3095,15 +3116,15 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>6500180004</v>
+        <v>6500180003</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F96" s="5" t="s">
@@ -3118,15 +3139,15 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>6500180005</v>
+        <v>6500180004</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4">
-        <f t="shared" ref="E97:E128" si="4">SUM(C97-D97)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F97" s="5" t="s">
@@ -3141,15 +3162,15 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>6500180009</v>
+        <v>6500180005</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E98:E129" si="5">SUM(C98-D98)</f>
         <v>0</v>
       </c>
       <c r="F98" s="5" t="s">
@@ -3164,15 +3185,15 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>6500180011</v>
+        <v>6500180009</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F99" s="5" t="s">
@@ -3187,15 +3208,15 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>6500180012</v>
+        <v>6500180011</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -3210,15 +3231,15 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>6500180034</v>
+        <v>6500180012</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F101" s="5" t="s">
@@ -3233,15 +3254,15 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>6500180038</v>
+        <v>6500180034</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F102" s="5" t="s">
@@ -3256,15 +3277,15 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>6500180045</v>
+        <v>6500180038</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -3279,107 +3300,107 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>65001900046</v>
+        <v>6500180045</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>142</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="G104" s="4">
-        <v>30600</v>
+        <v>32450</v>
       </c>
       <c r="H104" s="4">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>65001900192</v>
+        <v>65001900046</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G105" s="4">
-        <v>32450</v>
+        <v>30600</v>
       </c>
       <c r="H105" s="4">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>65001900379</v>
+        <v>65001900192</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G106" s="4">
-        <v>30600</v>
+        <v>32450</v>
       </c>
       <c r="H106" s="4">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>670300205901</v>
+        <v>65001900379</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>135</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G107" s="4">
-        <v>32450</v>
+        <v>30600</v>
       </c>
       <c r="H107" s="4">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>670300305901</v>
+        <v>670300205901</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
@@ -3394,15 +3415,15 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>670300405901</v>
+        <v>670300305901</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F109" s="5" t="s">
@@ -3417,15 +3438,15 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>670300505902</v>
+        <v>670300405901</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F110" s="5" t="s">
@@ -3440,15 +3461,15 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>670300506101</v>
+        <v>670300505902</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F111" s="5" t="s">
@@ -3463,15 +3484,15 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>670300705901</v>
+        <v>670300506101</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F112" s="5" t="s">
@@ -3486,38 +3507,38 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>85002002005</v>
+        <v>670300705901</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="G113" s="4">
-        <v>32510</v>
+        <v>32450</v>
       </c>
       <c r="H113" s="4">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>85002002007</v>
+        <v>85002002005</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -3532,15 +3553,15 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>85002002036</v>
+        <v>85002002007</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -3555,38 +3576,38 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>90001002</v>
+        <v>85002002036</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>141</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="G116" s="4">
-        <v>32460</v>
+        <v>32510</v>
       </c>
       <c r="H116" s="4">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>90001003</v>
+        <v>90001002</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F117" s="7" t="s">
@@ -3601,15 +3622,15 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>90001004</v>
+        <v>90001003</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F118" s="7" t="s">
@@ -3624,15 +3645,15 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>90001005</v>
+        <v>90001004</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F119" s="7" t="s">
@@ -3647,15 +3668,15 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>90001006</v>
+        <v>90001005</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F120" s="7" t="s">
@@ -3670,15 +3691,15 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>90001007</v>
+        <v>90001006</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F121" s="7" t="s">
@@ -3693,15 +3714,15 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>90001008</v>
+        <v>90001007</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F122" s="7" t="s">
@@ -3716,15 +3737,15 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>90001009</v>
+        <v>90001008</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F123" s="7" t="s">
@@ -3739,15 +3760,15 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>90001011</v>
+        <v>90001009</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F124" s="7" t="s">
@@ -3762,15 +3783,15 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>90001012</v>
+        <v>90001011</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F125" s="7" t="s">
@@ -3785,15 +3806,15 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>90001013</v>
+        <v>90001012</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F126" s="7" t="s">
@@ -3808,15 +3829,15 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>90001016</v>
+        <v>90001013</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F127" s="7" t="s">
@@ -3831,15 +3852,15 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>90001017</v>
+        <v>90001016</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F128" s="7" t="s">
@@ -3854,15 +3875,15 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>90001019</v>
+        <v>90001017</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4">
-        <f t="shared" ref="E129:E133" si="5">SUM(C129-D129)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F129" s="7" t="s">
@@ -3877,15 +3898,15 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>90001020</v>
+        <v>90001019</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E130:E134" si="6">SUM(C130-D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="7" t="s">
@@ -3900,15 +3921,15 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>90001025</v>
+        <v>90001020</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F131" s="7" t="s">
@@ -3923,15 +3944,15 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>90001030</v>
+        <v>90001025</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F132" s="7" t="s">
@@ -3946,15 +3967,15 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>90001031</v>
+        <v>90001030</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F133" s="7" t="s">
@@ -3969,22 +3990,22 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>65001158001280</v>
+        <v>90001031</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4">
-        <f t="shared" ref="E134:E136" si="6">SUM(C134-D134)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G134" s="4">
-        <v>32450</v>
+        <v>32460</v>
       </c>
       <c r="H134" s="4">
         <v>333</v>
@@ -3992,15 +4013,15 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>65001158001281</v>
+        <v>65001158001280</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E135:E137" si="7">SUM(C135-D135)</f>
         <v>0</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -4015,15 +4036,15 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>65001158001282</v>
+        <v>65001158001281</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F136" s="7" t="s">
@@ -4033,6 +4054,29 @@
         <v>32450</v>
       </c>
       <c r="H136" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>65001158001282</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G137" s="4">
+        <v>32450</v>
+      </c>
+      <c r="H137" s="4">
         <v>333</v>
       </c>
     </row>

--- a/gabarito.xlsx
+++ b/gabarito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almox01.filial\Documents\Executaveis\v6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almox01.filial\Documents\Executaveis\v9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21424EE-D707-42DD-9183-6A0E29B2C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E77534-E78F-407B-AF42-F18316367B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
   <si>
     <t>codigo</t>
   </si>
@@ -485,6 +485,18 @@
   </si>
   <si>
     <t>DESENGRIPANTE 300ML/200G</t>
+  </si>
+  <si>
+    <t>COLA SPRAY</t>
+  </si>
+  <si>
+    <t>uso na forracao de containeres de exportacao</t>
+  </si>
+  <si>
+    <t>LAMPADA LED BULBO 15W E-27</t>
+  </si>
+  <si>
+    <t>uso na iluminacao dos setores</t>
   </si>
 </sst>
 </file>
@@ -910,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,7 +2078,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4">
-        <f>SUM(C50-D50)</f>
+        <f t="shared" ref="E50:E65" si="4">SUM(C50-D50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -2089,7 +2101,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4">
-        <f>SUM(C51-D51)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -2112,7 +2124,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4">
-        <f>SUM(C52-D52)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -2135,7 +2147,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4">
-        <f>SUM(C53-D53)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -2158,7 +2170,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4">
-        <f>SUM(C54-D54)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -2181,7 +2193,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4">
-        <f>SUM(C55-D55)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -2204,7 +2216,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4">
-        <f>SUM(C56-D56)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -2227,7 +2239,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4">
-        <f>SUM(C57-D57)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -2250,7 +2262,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4">
-        <f>SUM(C58-D58)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -2273,7 +2285,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4">
-        <f>SUM(C59-D59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -2296,7 +2308,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4">
-        <f>SUM(C60-D60)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -2319,7 +2331,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4">
-        <f>SUM(C61-D61)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -2342,7 +2354,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4">
-        <f>SUM(C62-D62)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
@@ -2365,7 +2377,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4">
-        <f>SUM(C63-D63)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -2388,7 +2400,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4">
-        <f>SUM(C64-D64)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -2411,7 +2423,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4">
-        <f>SUM(C65-D65)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -2434,7 +2446,7 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4">
-        <f t="shared" ref="E66:E97" si="4">SUM(C66-D66)</f>
+        <f t="shared" ref="E66:E97" si="5">SUM(C66-D66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2457,7 +2469,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -2480,7 +2492,7 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -2503,7 +2515,7 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -2526,7 +2538,7 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -2549,7 +2561,7 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -2572,7 +2584,7 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -2595,7 +2607,7 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -2618,7 +2630,7 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -2641,7 +2653,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -2664,7 +2676,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -2687,7 +2699,7 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -2710,7 +2722,7 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -2733,7 +2745,7 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -2756,7 +2768,7 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -2779,7 +2791,7 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -2802,7 +2814,7 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -2825,7 +2837,7 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -2848,7 +2860,7 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -2871,7 +2883,7 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -2894,7 +2906,7 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -2917,7 +2929,7 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -2940,7 +2952,7 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -2963,7 +2975,7 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -2986,7 +2998,7 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -3009,7 +3021,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -3032,7 +3044,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -3055,7 +3067,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -3078,7 +3090,7 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -3101,7 +3113,7 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -3124,7 +3136,7 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F96" s="5" t="s">
@@ -3147,7 +3159,7 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F97" s="5" t="s">
@@ -3170,7 +3182,7 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4">
-        <f t="shared" ref="E98:E129" si="5">SUM(C98-D98)</f>
+        <f t="shared" ref="E98:E129" si="6">SUM(C98-D98)</f>
         <v>0</v>
       </c>
       <c r="F98" s="5" t="s">
@@ -3193,7 +3205,7 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99" s="5" t="s">
@@ -3216,7 +3228,7 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -3239,7 +3251,7 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101" s="5" t="s">
@@ -3262,7 +3274,7 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F102" s="5" t="s">
@@ -3285,7 +3297,7 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -3308,7 +3320,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -3331,7 +3343,7 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -3354,7 +3366,7 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -3377,7 +3389,7 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -3400,7 +3412,7 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
@@ -3423,7 +3435,7 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F109" s="5" t="s">
@@ -3446,7 +3458,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F110" s="5" t="s">
@@ -3469,7 +3481,7 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F111" s="5" t="s">
@@ -3492,7 +3504,7 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F112" s="5" t="s">
@@ -3515,7 +3527,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F113" s="5" t="s">
@@ -3538,7 +3550,7 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -3561,7 +3573,7 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -3584,7 +3596,7 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -3607,7 +3619,7 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F117" s="7" t="s">
@@ -3630,7 +3642,7 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F118" s="7" t="s">
@@ -3653,7 +3665,7 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F119" s="7" t="s">
@@ -3676,7 +3688,7 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F120" s="7" t="s">
@@ -3699,7 +3711,7 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F121" s="7" t="s">
@@ -3722,7 +3734,7 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F122" s="7" t="s">
@@ -3745,7 +3757,7 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F123" s="7" t="s">
@@ -3768,7 +3780,7 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F124" s="7" t="s">
@@ -3791,7 +3803,7 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F125" s="7" t="s">
@@ -3814,7 +3826,7 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F126" s="7" t="s">
@@ -3837,7 +3849,7 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F127" s="7" t="s">
@@ -3860,7 +3872,7 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F128" s="7" t="s">
@@ -3883,7 +3895,7 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F129" s="7" t="s">
@@ -3906,7 +3918,7 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4">
-        <f t="shared" ref="E130:E134" si="6">SUM(C130-D130)</f>
+        <f t="shared" ref="E130:E134" si="7">SUM(C130-D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="7" t="s">
@@ -3929,7 +3941,7 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" s="7" t="s">
@@ -3952,7 +3964,7 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F132" s="7" t="s">
@@ -3975,7 +3987,7 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F133" s="7" t="s">
@@ -3998,7 +4010,7 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F134" s="7" t="s">
@@ -4021,7 +4033,7 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4">
-        <f t="shared" ref="E135:E137" si="7">SUM(C135-D135)</f>
+        <f t="shared" ref="E135:E137" si="8">SUM(C135-D135)</f>
         <v>0</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -4044,7 +4056,7 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F136" s="7" t="s">
@@ -4067,7 +4079,7 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F137" s="7" t="s">
@@ -4077,6 +4089,52 @@
         <v>32450</v>
       </c>
       <c r="H137" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>6500120090</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4">
+        <f t="shared" ref="E138" si="9">SUM(C138-D138)</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G138" s="4">
+        <v>32510</v>
+      </c>
+      <c r="H138" s="4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>650016003300</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4">
+        <f t="shared" ref="E139" si="10">SUM(C139-D139)</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G139" s="4">
+        <v>32450</v>
+      </c>
+      <c r="H139" s="4">
         <v>333</v>
       </c>
     </row>
